--- a/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
+++ b/InputData/elec/ESUfRaLCD/Elec Sources Used for Rlbty and Lst Cst Dsptch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\ESUfRaLCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDBADE1-6DF0-4237-91E8-604F6BAE0255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D45BA-BAED-45ED-ABE9-9BA92A98D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{4A7A9C5C-85FC-43FE-AB1B-A2C5DC00E496}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -176,13 +176,31 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>We do not use nuclear for dispatch in the US because we have nuclear listed</t>
+  </si>
+  <si>
+    <t>as guaranteed dispatch in elec/BGDPbES.</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>biomass dispatch</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>hydro dispatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +212,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1D3264-BEAA-43D0-A5CC-06C5D3B72BE0}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +617,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -693,6 +719,16 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1316,10 +1352,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,11 +1394,11 @@
         <v>44</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B21" si="0">IF(A3="","",CONCATENATE(A3," es"))</f>
+        <f t="shared" ref="B3:B23" si="0">IF(A3="","",CONCATENATE(A3," es"))</f>
         <v>natural gas steam turbine es</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">IF(A3="","",CONCATENATE(A3," dispatch"))</f>
+        <f t="shared" ref="C3:C68" si="1">IF(A3="","",CONCATENATE(A3," dispatch"))</f>
         <v>natural gas steam turbine dispatch</v>
       </c>
     </row>
@@ -1381,113 +1417,115 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>petroleum es</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>petroleum dispatch</v>
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas peaker es</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>natural gas peaker dispatch</v>
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>lignite es</v>
+        <v>petroleum es</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>lignite dispatch</v>
+        <v>petroleum dispatch</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>municipal solid waste es</v>
+        <v>natural gas peaker es</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>municipal solid waste dispatch</v>
+        <v>natural gas peaker dispatch</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>small modular reactor es</v>
+        <v>lignite es</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>small modular reactor dispatch</v>
+        <v>lignite dispatch</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>hydrogen combustion turbine es</v>
+        <v>municipal solid waste es</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>hydrogen combustion turbine dispatch</v>
+        <v>municipal solid waste dispatch</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>small modular reactor es</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>small modular reactor dispatch</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>hydrogen combustion turbine es</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>hydrogen combustion turbine dispatch</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>hydrogen combined cycle es</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>hydrogen combined cycle dispatch</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,12 +1609,20 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1842,19 +1888,19 @@
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C80" si="2">IF(A67="","",CONCATENATE(A67," dispatch"))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C69:C82" si="2">IF(A69="","",CONCATENATE(A69," dispatch"))</f>
         <v/>
       </c>
     </row>
@@ -1920,6 +1966,18 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
